--- a/experiment/linear/ex9_1_2/compare/M-Estacionario/ex9_1_2_M-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_2/compare/M-Estacionario/ex9_1_2_M-Estacionario.xlsx
@@ -482,13 +482,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00018855</v>
+        <v>0.00018612</v>
       </c>
       <c r="F2">
-        <v>0.01526103</v>
+        <v>0.01757844</v>
       </c>
       <c r="G2">
-        <v>0.00035103884399999996</v>
+        <v>0.000333570195</v>
       </c>
       <c r="H2">
         <v>1645</v>
@@ -517,13 +517,13 @@
         <v>-1.8719859462205766</v>
       </c>
       <c r="E3">
-        <v>0.00278937</v>
+        <v>0.00279486</v>
       </c>
       <c r="F3">
-        <v>0.0076752</v>
+        <v>0.00719136</v>
       </c>
       <c r="G3">
-        <v>0.003542397317246274</v>
+        <v>0.0032316301747572817</v>
       </c>
       <c r="H3">
         <v>3329</v>

--- a/experiment/linear/ex9_1_2/compare/M-Estacionario/ex9_1_2_M-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_2/compare/M-Estacionario/ex9_1_2_M-Estacionario.xlsx
@@ -482,13 +482,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00018612</v>
+        <v>0.000285655</v>
       </c>
       <c r="F2">
-        <v>0.01757844</v>
+        <v>0.02652873</v>
       </c>
       <c r="G2">
-        <v>0.000333570195</v>
+        <v>0.0004965854824447335</v>
       </c>
       <c r="H2">
         <v>1645</v>
@@ -517,13 +517,13 @@
         <v>-1.8719859462205766</v>
       </c>
       <c r="E3">
-        <v>0.00279486</v>
+        <v>0.004229489</v>
       </c>
       <c r="F3">
-        <v>0.00719136</v>
+        <v>0.010075473</v>
       </c>
       <c r="G3">
-        <v>0.0032316301747572817</v>
+        <v>0.00501175204321608</v>
       </c>
       <c r="H3">
         <v>3329</v>
